--- a/platform/src/main/resources/jxls/overtimes_summary_template.xlsx
+++ b/platform/src/main/resources/jxls/overtimes_summary_template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A2328A-991C-494D-8431-7C050DD29B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F44C524-6182-4ACA-AFCA-3E80CAAF3636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{91F31802-FEF7-4BA4-876A-AF4DEC49005E}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="overtimes" var="o" lastCell="D6")</t>
+jx:each(items="overtimes" var="o" lastCell="D6" orderBy="employeeDisplayName")</t>
         </r>
       </text>
     </comment>
@@ -79,40 +79,40 @@
     <t>${exportedAt}</t>
   </si>
   <si>
+    <t>Сотрудник</t>
+  </si>
+  <si>
+    <t>Текущий проект</t>
+  </si>
+  <si>
+    <t>Часы</t>
+  </si>
+  <si>
+    <t>Статус согласования</t>
+  </si>
+  <si>
+    <t>${period}</t>
+  </si>
+  <si>
+    <t>${o.employeeDisplayName}</t>
+  </si>
+  <si>
+    <t>${o.employeeCurrentProject}</t>
+  </si>
+  <si>
+    <t>${o.commonApprovalStatus}</t>
+  </si>
+  <si>
+    <t>Отчёт о переработках, построенный в системе HR Easy</t>
+  </si>
+  <si>
+    <t>${o.totalHours}</t>
+  </si>
+  <si>
+    <t>Время выгрузки</t>
+  </si>
+  <si>
     <t>Период</t>
-  </si>
-  <si>
-    <t>Составлено</t>
-  </si>
-  <si>
-    <t>Сотрудник</t>
-  </si>
-  <si>
-    <t>Текущий проект</t>
-  </si>
-  <si>
-    <t>Часы</t>
-  </si>
-  <si>
-    <t>Статус согласования</t>
-  </si>
-  <si>
-    <t>${period}</t>
-  </si>
-  <si>
-    <t>${o.employeeDisplayName}</t>
-  </si>
-  <si>
-    <t>${o.employeeCurrentProject}</t>
-  </si>
-  <si>
-    <t>${o.commonApprovalStatus}</t>
-  </si>
-  <si>
-    <t>Отчёт о переработках, построенный в системе HR Easy</t>
-  </si>
-  <si>
-    <t>${o.totalHours}</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
     <numFmt numFmtId="166" formatCode="[$-F419]yyyy\,\ mmmm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +163,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -173,13 +189,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor rgb="FFE84C05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,19 +212,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -246,7 +270,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
+          <bgColor rgb="FFE84C05"/>
         </patternFill>
       </fill>
     </dxf>
@@ -261,6 +285,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2200275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A199304-B4B9-453A-954C-565596A2CC46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="2979" t="8904" r="4679" b="13698"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="85725"/>
+          <a:ext cx="2066925" cy="1076326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,74 +683,79 @@
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5"/>
+    <row r="1" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
